--- a/Hotel_Management/Hotel_Data.xlsx
+++ b/Hotel_Management/Hotel_Data.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Booking View" r:id="rId3" sheetId="1"/>
+    <sheet name="Booking_Data" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="8">
   <si>
     <t>Room#</t>
   </si>
@@ -20,28 +20,22 @@
     <t>Availability</t>
   </si>
   <si>
-    <t>Reserver ID</t>
+    <t>ReserverID</t>
   </si>
   <si>
-    <t>Reserve Time</t>
+    <t>ReserveTime</t>
   </si>
   <si>
-    <t>Check In</t>
+    <t>CheckIn</t>
   </si>
   <si>
-    <t>Check Out</t>
+    <t>CheckOut</t>
   </si>
   <si>
     <t>Open</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>booked</t>
-  </si>
-  <si>
-    <t>12/24/2002</t>
   </si>
 </sst>
 </file>
@@ -86,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,19 +111,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>10002.0</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>1100.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>1500.0</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2109,6 +2103,1006 @@
         <v>7</v>
       </c>
       <c r="F101" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F133" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F139" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F140" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s" s="0">
         <v>7</v>
       </c>
     </row>
